--- a/Checker_Input.xlsx
+++ b/Checker_Input.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
